--- a/data/Own_db/Templates.xlsx
+++ b/data/Own_db/Templates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents-SSD\Interaction Technology\Natural Language Processing II\project\FairyTale-Generator\data\Own_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206FA829-439F-4FB3-AB5C-EC2FE64DE879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80005F6D-D89F-4E87-AE3F-0D849B5870D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3384" yWindow="3384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,33 +37,15 @@
     <t>ending</t>
   </si>
   <si>
-    <t>Whose sole wish was to</t>
-  </si>
-  <si>
     <t>In a faraway land,</t>
   </si>
   <si>
-    <t>Who had always dreamed to</t>
-  </si>
-  <si>
     <t>Once upon a time,</t>
   </si>
   <si>
-    <t>Whose dream was to</t>
-  </si>
-  <si>
-    <t>Whose single purpose in life is to</t>
-  </si>
-  <si>
-    <t>Who had always wanted to</t>
-  </si>
-  <si>
     <t>Far far away,</t>
   </si>
   <si>
-    <t>Who really wanted to</t>
-  </si>
-  <si>
     <t>there was</t>
   </si>
   <si>
@@ -107,13 +89,31 @@
   </si>
   <si>
     <t>In a land far far away,</t>
+  </si>
+  <si>
+    <t>A's sole wish was to</t>
+  </si>
+  <si>
+    <t>A had always dreamed to</t>
+  </si>
+  <si>
+    <t>A's dream was to</t>
+  </si>
+  <si>
+    <t>A's single purpose in life is to</t>
+  </si>
+  <si>
+    <t>A had always wanted to</t>
+  </si>
+  <si>
+    <t>A really wanted to</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -129,9 +129,21 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -154,11 +166,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,8 +394,8 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -409,86 +424,86 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
